--- a/results/mp/logistic/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,36 +43,33 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -82,15 +79,15 @@
     <t>drop</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -109,130 +106,121 @@
     <t>friend</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>special</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>safety</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -590,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -709,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6923076923076923</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,16 +718,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -859,37 +847,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5294117647058824</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,49 +1047,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4722222222222222</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L11">
+        <v>65</v>
+      </c>
+      <c r="M11">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11">
-        <v>0.8276762402088773</v>
-      </c>
-      <c r="L11">
-        <v>317</v>
-      </c>
-      <c r="M11">
-        <v>317</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4324324324324325</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4285714285714285</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.313953488372093</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C15">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7830188679245284</v>
+        <v>0.76875</v>
       </c>
       <c r="L15">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2372881355932203</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.76875</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,16 +1368,16 @@
         <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2080536912751678</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,87 +1447,63 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.06349206349206349</v>
+        <v>0.00547680412371134</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>236</v>
+        <v>3087</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.734375</v>
+      </c>
+      <c r="L19">
+        <v>94</v>
+      </c>
+      <c r="M19">
+        <v>94</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K19">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.005154639175257732</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>0.16</v>
-      </c>
-      <c r="F20">
-        <v>0.84</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3088</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.7253521126760564</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,12 +1541,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>0.7142857142857143</v>
@@ -1608,16 +1572,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1634,7 +1598,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>0.6857142857142857</v>
@@ -1660,16 +1624,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1681,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1707,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6595744680851063</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1733,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.64</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1759,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6363636363636364</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1785,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.6349206349206349</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1811,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.6279069767441861</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1837,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.611764705882353</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1863,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1889,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5690376569037657</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L34">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1915,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5638297872340425</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1941,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.5538461538461539</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1967,47 +1931,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.5476190476190477</v>
+        <v>0.5397489539748954</v>
       </c>
       <c r="L37">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="M37">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.5357142857142857</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2019,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39">
         <v>0.5</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2045,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2071,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.4848484848484849</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2097,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.4047619047619048</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2123,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.4044943820224719</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2149,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.3777777777777778</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2175,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.3150684931506849</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2201,85 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K46">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>16</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="L47">
-        <v>24</v>
-      </c>
-      <c r="M47">
-        <v>24</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="L48">
-        <v>13</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
